--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_20-22.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_20-22.xlsx
@@ -1539,17 +1539,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -4570,7 +4570,7 @@
     </row>
     <row r="137" ht="26.25" customHeight="1">
       <c r="K137" s="11">
-        <v>12106.549999999999</v>
+        <v>12184.549999999999</v>
       </c>
       <c r="L137" s="11"/>
       <c r="M137" s="11"/>
